--- a/biology/Botanique/John_Eatton_Le_Conte/John_Eatton_Le_Conte.xlsx
+++ b/biology/Botanique/John_Eatton_Le_Conte/John_Eatton_Le_Conte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Eatton Le Conte (ou John Eatton LeConte ou John Eaton Leconte) est un  naturaliste américain, né le 22 février 1784 à Shrewsbury dans le New Jersey et mort le 21 novembre 1860.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Jane Sloane et de John Eatton Le Conte. Il est diplômé du Collège Columbia de New York où il a suivi les cours d’histoire naturelle de David Hosack (1769-1835), fondateur du jardin botanique d'Elgin. Le frère aîné de John, Louis, hérite de la plantation familiale de Woodmanston, près de Midway (Géorgie). Bien que John vive à New York ou en Nouvelle-Angleterre, il passe ses hivers à Woodmanston. Il souffre de rhumatismes et probablement d’autres affections presque toute sa vie.
 En avril 1818, John devient capitaine dans le corps des ingénieurs topographes de l’armée américaine. Il est notamment cantonné dans la région de Norfolk (Virginie), de Savannah (Géorgie) et Ossabaw Sound, également en Géorgie. Le Conte obtient son brevet de major en avril 1820 et quitte l’armée en août 1831.
@@ -549,7 +563,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 (en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « John Eatton Le Conte » (voir la liste des auteurs).</t>
